--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/47_Kayseri_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/47_Kayseri_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF9B6D04-4B41-438A-9E35-0D2F456109C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46C6825A-F343-4C60-9412-E61599C9B12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="667" xr2:uid="{F6A5A5C8-5BFD-4AAC-B167-40AAFA02C29D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{9E0AEF52-0BD6-4E9F-8302-7419663840C8}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{BCEB5CA3-5019-4296-9D9F-0F8617919AFC}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9434E11F-6D34-45AA-9949-62C2CCFED36F}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{666190AC-7030-4615-BD79-0BADB9101101}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{65731040-A93D-4340-A755-53AAC7784A69}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4F0B424B-2315-4027-AFBE-5AA8A00F5C2F}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{8311DD4A-150C-4948-9BDF-E4D4F1A9D21F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5C1018CD-6CA3-4BBB-A8A7-187779CEEF38}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{FF894D1A-FEE0-4628-B1F4-09A4D9687D7A}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{138DC52D-4A41-4B96-8400-104B07889A6F}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{97148D89-AD2E-4312-9C8A-878506681DC3}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8023782A-F662-497F-911F-0B85DBAB4787}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D0E2A0EF-B873-4770-BA5F-F0B9F57AA597}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C298CAC8-697C-47A4-9743-AC282063ED32}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{0A5C20F1-ED61-44B5-8344-27502C7AB561}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171B0F5B-370F-4483-84CA-C168F36E744D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D2A172-E24C-4DA0-B7AA-236477A1872A}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2664,17 +2664,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48862A12-49B5-4947-8BCC-191C52527A84}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36B05A50-7F1D-4724-9691-0EFF6683CA25}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CD7A412C-9C01-49A1-99E5-72F8755F1B16}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B3E76F69-AD5C-4B48-9694-F56D1FABE9FB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4AF593C4-9DFF-463D-BF7B-DC45262E3BFD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AA90FD76-AD06-4856-B74E-18AF582737C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8BB89A1B-4BD8-4A2E-9F1B-FA724AFB10A3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D42DBAA-CD9F-4B29-A263-5F4CD687C6D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C218685F-9594-4487-ABF9-0862B1CD23D9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E9C0B11E-F9F9-4338-B290-AD6165114637}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E9D60BC-4779-44B5-930A-545AE63D8D02}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37B002F2-AEDF-40CB-87C4-BDC98209D1CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{251A7FDF-D0AE-49AC-AA6F-7548C5A31BEA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A1D49C9F-BF85-43DE-A56E-5DC80A52FFD4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CB2340FA-7ADC-468E-BCA4-D8267B05F95F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DDD63D4B-C70A-47ED-B640-98CF33A68380}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{44E7203E-1E38-49A4-B466-130D3A01D062}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE65D3B0-C888-4845-9DEF-2857867BA37F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8293F4C6-C58F-4FBF-B6B8-B1023210E4C3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{801C1074-D3C5-46A2-A62E-836E8A2D75B8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B9C22E56-C419-42FC-9E1A-4E8F360C0F88}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E9A3A12-9A67-484B-A5AE-128C82BC9996}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2687,7 +2687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968ABE7D-C588-427B-95E5-A339337B725B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8784550C-344E-41CA-BD67-F800016ED30B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3998,17 +3998,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9224500A-6B26-444C-AB64-3A0034EB5A96}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80497453-3BCF-4BD9-81A9-31B5D029BB9D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{681AE1B6-A927-4145-A9EB-8773FE9A4589}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{83A6EC85-BC49-498E-9BA4-21670E8F4C57}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{21919F21-8E8B-4BFB-A20E-0AB79CEDF499}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{21877228-256B-4F5A-A2D8-DD6184532110}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BDA45E68-A43C-451A-A588-487DD4EDB7BD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D591609-EFF0-46B7-9776-33F5A7989F95}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E0FDA246-03A9-4ED1-829E-07E3C977BFBA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3D41CA1A-535A-4993-8CDA-F32A5E6F5F23}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18C2F8D6-ADC0-4CC3-A6A7-7386F86B1CFA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{19279E76-8DEA-4EE4-844B-0E50CE00DFFA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D455B13-C027-4410-94C8-4A8F2A757B3B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{265B0120-032A-4EFC-A72C-1EBBBB6FFCCA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1BE5A6C6-D561-43AA-9AE8-95157E299C59}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{05B96666-D24E-4B3B-9FD6-5C2FA808ACB3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{263C5D69-BBF7-41B7-8764-F84681BDF279}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9DF6F713-2A5E-41D4-8B15-D3BC7A927500}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{666B4535-F7D5-4839-9B1F-992226A5B1C4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9A5B7F47-AF38-4FA2-940A-B6345F286123}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F1CBAE17-3710-44AB-B967-51EC00CCC80A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4BF4D818-3734-4F05-9271-1A0B2F822A3A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4021,7 +4021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CA6EA6-B711-45FC-8B80-EEB5D1983503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C08354-8823-4F73-A285-4DFD5BDD1CAF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5322,17 +5322,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5F93722-7621-49BC-9DF4-2003AF238635}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4090C7DE-C540-449E-A079-991FB3B6B810}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B3B0E58E-3BE9-468F-8EB7-ED427D387F79}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB948B04-8A1E-4FFD-9AB2-5A03BF6C068E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7BF6602-31C5-4DA7-8704-63AEE2DCB7CF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AC289714-0A30-4A00-8737-9FA28B2360FA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{14ECFC38-45E9-4C27-B061-6928796ED996}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9FF1470-7FDB-418D-9CBB-02B75382EAFA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{12CF9594-B055-4991-8687-F205CBF9D27E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BB814078-8C8D-43D6-AC5B-D2618D9E04C3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1084F340-65ED-41CE-9382-8054AA345140}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5898A540-36AB-4C65-9535-D1240CF70100}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D2A4BDA4-CF64-445A-A59A-D762A3F88529}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1E31963F-84CD-4834-A805-C8587299F68D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6EA9C8AD-17BB-4C70-9E17-3740A5A07C68}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A75BF2C8-5367-4B8D-AAC0-BBCE2B8E7BE8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9BD21043-1E29-42FD-873A-E8C181AABB8C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07D1C865-3DA5-4385-8DEF-DF1CA6E83CB7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0640E772-2F98-4269-96D7-114323F2DAC7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0615D21B-BBBA-4C9C-981B-4339A376E7BF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AF8C94AA-A849-457A-91DF-1C88D93162E1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{16F1E1D4-179B-461D-AE9F-1157EFF28246}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5345,7 +5345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBF930E-60CD-427C-8E1D-DC84FB03DE38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F9973A-CEEC-44BA-9649-E2AC85B091F1}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6636,17 +6636,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8E529728-048E-4DC1-8093-44E33349B6B8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C42D5FF-3DB9-4563-8C11-3F28F478D9FA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{549704BC-B94F-4F0E-938E-6A64332ED8BD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{05BFC468-07B7-4204-97D5-DBDA64E70E3F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{85F008AF-B593-4C11-AD6D-7AF6955EDCBB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E4422D41-68DA-4B27-A628-8688EBC70156}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D420B3AD-E016-4A39-848B-4D7893FEBD03}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{310B88A3-F7F6-46C5-9F87-E9CE4BE2AEA2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{153690D2-E05D-4FB8-A2B5-B7A2DB0C6169}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F94D387D-EDD3-4B86-8933-61884A2A709F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C219914F-361A-4E14-A900-9B4A6598E7DB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2BF42AA-D47D-478F-812E-D05F63C82745}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D3371A62-3CC8-497F-86A6-9CDB28975733}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DA764FE4-C9DA-4468-ABF0-E50442C5D9C6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87C4B629-B22E-4451-8196-28980BA650DD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2B864B6C-E833-4CEE-A400-F1A808468D7C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D5AAEDF3-1F59-4950-8814-2073A59B2496}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9B759C6-3573-447C-BC9F-011EC5F3EA24}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2AB80BEC-7C7D-4D7E-A356-BF30DAA79DD1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{17867A19-E8B3-42AE-8C65-69F80516CEB6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{78CDFC64-E878-471B-9FDC-2894C8DBB0F9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E466DF3B-526A-4CEB-A483-857D8964D827}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6659,7 +6659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7591A3-2A9E-42A8-B644-2F180DAD86F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF076B07-3EAD-4CDC-AB8A-D75F800B5F2F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7974,17 +7974,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7642E47B-AF01-432F-A73A-7EB53787EE21}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA4132FB-A207-4A7F-821B-3ED2198392D7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{80BB85AB-C091-44E5-B6F8-DB3CC06E6EFF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{758C8019-8B88-410E-8F06-0B8673ECEBA1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71327BA2-6DD5-4C53-A8D7-43EB1D8E23A6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20880B34-05D3-4AFE-8424-5EC3AB16D142}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47B2C747-BD6D-482B-B726-E99F6CCF52B6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CF285611-ECD6-4471-954C-CB2C0AE8D72A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{00B82264-B221-4A47-9B2F-3721AF666019}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FCCCD867-BAF3-4C3B-B7C9-D76808319229}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7EB2135-2275-4716-8472-68CD5F9F3057}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18B66891-E2E4-41C4-8975-77A0978BE681}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25058EB6-D07C-4407-A01D-39ED73EF04B8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B8F73E33-D8B5-4D30-A361-69594840026F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C3CCC667-91C4-4934-B399-78C32FED765B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D247424-4FE7-40EB-A1F6-D6969F72C15B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB5C1C01-91B3-47E8-B886-99534BC859C3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ADD2C06B-5A47-4691-AA87-BEE4A4CB31F6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6AB62589-821C-4E11-A517-9EE2328E04E0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6AEA33FE-DE60-4FDD-AFF6-DB1A177589DA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0A40B750-A8AB-4988-9F0D-0F78B389494F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A049FE2E-B82D-4F1D-A13E-D50737B49D4B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7997,7 +7997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DF566A-65C5-46BF-8A42-062BE004E8F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C40EBE3-4FDF-434D-92B3-3858B28ADA4D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9312,17 +9312,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BEB196D4-859E-4B45-873A-51DECE2B3656}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{025F8FE4-20D9-4599-B8C4-CFADD9CC996C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7591BDC3-B51A-4C03-A5CA-386A029B7C65}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58CA7B49-2EE9-464C-85AD-B00359A92C73}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3130B59D-B4A3-4036-A09B-9853306E0E97}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{08580435-4B41-4D0E-A0F3-29916E993938}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{304F92AB-1036-4CEF-A2FF-CA2F087678EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8BE4C108-8F52-407A-AA29-693E075F0D49}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FD3F576B-8018-4020-ADD3-9DBE88D98282}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{03D9F17B-B253-4DA5-B60C-88D6B420B39C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{83231AEC-5693-4E43-BFCE-E4E84C2BEEF4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B509528B-3487-4C2E-AB91-12F8EF679907}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{969A2D15-E5E7-44AC-8587-60921D40D54A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F68E813C-8C78-4DBF-9801-B7AEBB47A60C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{14899B16-BC1F-48F4-ACF1-609E228C3E9B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86AC7AE4-2242-44E5-BED4-3C31D2FA496A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{248646A4-7A91-405F-ACF1-69B4D1E6099D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DFDDB385-53F2-45F7-8267-53AD4B180F6A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8267ACDF-5341-4B2E-9678-E045931FE267}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{32A5B0DD-A8A0-4AC1-882B-50DD00DF4E25}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B87FE9E8-CF9B-4617-B1AF-3584C3153852}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C8572F5-5F79-45A6-942A-8F7E1EBE184C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9335,7 +9335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718A05BD-8B55-4121-9F0A-A1539B075174}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A82A8F7-5C9E-4C5C-BDF9-AAEAC36FD873}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10650,17 +10650,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B76707AD-8014-4AD0-812E-2D439DE3A1E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46E42EB3-0B40-41DB-91EC-D903A9CD8178}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DB9F09D1-1CB0-4D93-AEA3-A488407CE9D0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{94C94685-A92A-4A17-B326-1ABFB10A05D1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B691A09-46DC-41E1-9784-B84004CD9D29}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FA12416B-CB40-4BB1-AA8A-4058F4219633}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8615268F-F3A5-4558-B857-931DF87FBF53}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{359404BD-3C5D-4459-B83A-6A393A624C87}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{13037B08-0561-4F6C-9316-3107C8BD5C0A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8BD327D6-4745-4D0D-98C4-1BD24B445A2C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EA75DCDF-B62D-4A5E-8FA0-07264DECE768}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C7C2E6E-65ED-4596-AA30-7084B4DD683E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6EBA3059-BAD5-4A17-AEE5-23496CF83193}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{628CE66F-DA80-4FE9-86EE-2D405FA37253}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16A44E56-5F44-4DCF-A252-23E67B2A0F4C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9EAE06C2-490E-452F-9C42-432E0E629DCB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0579C85-9B92-4383-B1C3-F4396F83167B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ECE25D8E-DB51-44E3-9463-B703EFA01058}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{067CE08B-D25B-48DB-87E4-D117D1F62E67}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{60DB5596-B85E-4148-81DC-29EE34755E32}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5DC2ABF0-3991-4EE7-A3F5-60F3FA2E0C69}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99F88293-6440-411C-8603-557AFD29163E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10673,7 +10673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079EDA2C-E76A-4357-83F7-CE6A0A76DEC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280B892C-F4DB-43C6-95D6-2B52F99FA1C0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11988,17 +11988,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48831A1A-2FFF-4075-AF7E-DB8011491212}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FEF9C5CE-15D5-437D-8E9F-FB03CF69FBDA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D493A6F6-DB3E-4C32-9FFB-90A9657C7021}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6CF62D98-E2B4-478A-8417-22670898373A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74DF98EB-15FB-4F52-B7FF-F540521AA1F7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11AF176E-4D95-4E40-97EB-83DF3B45D052}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{280E7156-FB07-4D6C-8084-09E9E583BEEF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C375AADF-4209-4FA9-B93F-B72657D61B90}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C4972836-EBE3-4D6C-9C5F-D8DEBBDD7D2D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2930556F-EE1F-4125-8333-7F7AEE9472A4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3DE7221A-FF8B-4A40-B263-53DC7CD0DBA6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A52F85FC-6AB6-4570-9511-0049CEFBA58C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E9AF3B76-4AD4-4329-B144-67F60CF9AB3B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0FE79897-A699-413F-9FD3-19B9736C899B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58EB9C9F-19B2-4366-BEA0-5E18F4D04434}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F8DE978-49C7-410F-8B2A-7E0A05F29B57}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8AFA37EE-C038-4CA1-95F9-51B46BEA5624}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4AABC148-0A79-4619-BB13-3512F7CBF937}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7CEE91D4-A77B-43FF-BF99-F56217E19A70}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8CD4AF4A-CC6D-403F-989B-B7137F92FD93}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{24924592-FDEA-4AE7-B976-CBAC97D4FA0E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E702FE33-BC69-4C09-A462-7ACE5E030750}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12011,7 +12011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56371DC4-4576-4F90-A022-912EA6FFDD30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D69D01-F663-44FB-BDB7-08CCEE5ADC2E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13326,17 +13326,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{296A7749-A93E-4B46-8EF8-E5180E9A695D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{132AE2B2-00B3-454E-9BBE-2A178BEFCFE9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4CCEF6FF-0CC5-4A87-A20C-F93E834F23EF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AF368804-DADD-426D-AFC9-5A1176B8F6CD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F5006FE-6063-45F1-AAA1-D6994DE02B76}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A7142A7F-104D-4021-B5F7-57843034E9F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88FF0C04-8C4E-408D-854D-4B059D9A4508}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BCA6DAE-E332-485A-A629-94F070B03B93}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{875E2D7E-28E1-4FC8-A892-F331BD161616}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{28FA34C0-FAB5-44A1-AAC3-CAFEB8ECB724}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{037F5897-6E68-416E-8611-52B52B17E8AB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52B3A972-5D1D-4D91-B87D-4157288175B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{854D77A5-06F6-48E6-BBB3-8A72CF38DF31}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CB2CE211-2893-48B9-8C60-42CDDD9F677E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{898DB5C0-828C-4386-9CDA-5E36C89D9243}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1FD9FA87-6B8B-4537-8E0B-BE37B9895F3F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{00894BC9-533C-408C-8BFB-35BC02512B21}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F2F4F6D-CF99-4C38-87CE-872A2907E9E3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C0963E4-1693-47C8-95A6-E522468A8E60}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0F79850E-876E-4A13-AF47-E252D4AF6B21}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{20A8DAB1-2E58-4C04-A154-446424AE467E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{34160158-7245-4C03-BAF9-F8C4C45EAEA8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13349,7 +13349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C839A4BE-F156-42CE-95B8-57B38CD5C247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A8D6BF-BD2E-4C69-B536-E8911F63FE0C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14664,17 +14664,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{436CEE22-F368-4551-B8AD-AB32E371A85C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E8008E0-DAD6-4F29-A104-5398FF31D3D1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5BC4C039-12F4-4A24-AAC1-02FD4ECE3006}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E558DE33-D775-4D34-A7D3-FDC03B64FC51}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1156DC08-F457-4116-9CB0-5B03F93C77F0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA3431D1-0C4E-4987-9BBA-79940B89599C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA890FB6-3E0A-4152-B7AF-C5B07089BACD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A63281EA-945E-4532-9327-9A4666DC05E8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D74B8322-41C9-404F-8DD5-5D75622BCA55}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F4EA1699-92E3-4611-9260-E4CC8066D478}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D8E6589-BB4E-4C62-B60F-C94D7A1B62D5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9CA8DB3E-E040-4140-8834-8F05CC2BBA5C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED6DF260-EE21-4E94-835F-55658A55AA12}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CD7379DF-17AC-41F3-9E80-DA3EEEBD9EA0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{304D28C4-3018-4E3F-9AAF-02236F8211F7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{19D03A6B-C6AE-409C-9953-164704E9DBE9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{819C6916-F391-4D2C-8847-F42916F4FB4D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D10C676F-8D24-4504-AC68-32B2CFD4B345}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ADA4F9A8-8881-41B0-8A52-F4C1FB62B14E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9AE13CB8-3250-4D3E-B9A1-FDBD9000D9F7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FB87CBBF-80FA-4EE3-BA9B-1FD2CAFF829F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84DF4BA9-AF53-4F7F-97C1-30A4D7940547}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14687,7 +14687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F403CA05-2D1C-4A89-A174-1E134D7B40A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39ED7D44-9FDB-4020-A01A-F354B13B8343}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15998,17 +15998,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{51312CD9-A515-4F8C-8479-1FDA9E852005}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4D2BFCC-ED7A-405F-861A-0416DE975B20}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BA51E9F5-BD22-47EF-92DC-FF9617211C1E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2D6B7BA7-9B64-4DD9-87F6-9BDE9CDFA3EE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F5F7112-E289-420D-AB99-BEF8F49E4C61}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6D8760D2-C080-4A2C-BD34-24588A9CE7BA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{26AE31D5-B0F6-4068-82C2-8FAB32947497}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{847FF88C-C5D2-42D1-AEF0-680730025572}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{46E7F8D8-481C-4B0E-BDF2-3F8F05FA46BD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{938D11CD-E8EA-4F8B-A7D6-A05C0A2BE556}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{60C5D600-0F9E-4E1D-A767-247054E86C2A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FDCAD355-9B22-431D-86E7-5919085CFAA3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{996F334E-697A-4769-A065-0F001F5D2443}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A23EFB21-BA37-45EF-BC77-F6660E83CBD1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1420E784-DF08-4D5D-987E-AAD6FC970507}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DC6212E4-0AFB-491C-B1C2-0F8D1E88B2C3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{098060AD-3A4C-4DFA-AFD1-A636DFFB8355}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{986E9C37-4691-41A7-A7B7-F6AA4D2832B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{25C01933-1938-4EAA-9E01-4E067D184C62}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7E71E807-1715-4B51-BCD7-0A2E5F6ACCFB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E2EE1033-6FFB-447E-9021-A47132E9C0BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1EC975E2-9CC4-46E2-97F7-22C4FAABFDB3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16021,7 +16021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAAE4C7-4494-4512-86AC-9DFBB24FBD3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA8829D-C9FD-494E-85B9-4AE24BE677DE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17332,17 +17332,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1C9098D6-7757-453E-A1B3-5E375DD6C78E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF63E99A-9577-458D-B650-0C376898B528}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D2094D1A-15D3-45AD-9A13-C10F0C645ED6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ADC2E183-6A60-47D6-99D4-7800A1410970}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8195D827-B58C-4B07-B7A7-807E677EAD34}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2C626E0-01A1-44EF-AC3F-21905334908B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FD7CFA5A-D7A6-475F-B0C6-1B05ED1FF71C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{002CBBFD-F4A2-4D2B-BE83-247ED423C4FE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FEB95176-123F-46D7-BC71-7772A7DFF154}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FEBD9EBC-70CC-4F24-8135-E371D1B0337D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1B1A671-12FA-4ED9-8732-1BD866FDD699}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3914720-CE7F-480E-95FF-F7242C820FF1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E2CBEE6-4D93-4501-A9E4-B1BE6177B900}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DFFC724A-1A62-4460-BF96-4F88D3FEA12A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A9156A92-7E0B-4FCB-B4B4-4F8E9D55A33D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A2E3C61B-F96A-43E9-9FB3-EB0278413990}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{03A39C95-2CC1-40E5-82B8-CA36DD16D3DD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7EA77BF8-CC98-42D3-AC42-526E75216845}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{349D5380-15A2-45C1-A415-2E0454F48409}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4688D26D-21E5-435D-9883-54E1AC53840F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{60B1BA31-C8B1-466A-A52C-A72A357FCBAF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{455720CC-0376-479A-8FA6-EC01EC2C4271}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
